--- a/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
+++ b/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,64 +273,67 @@
     <t>WF_RRN_OneY_TwoY_Test</t>
   </si>
   <si>
-    <t>9840075510</t>
-  </si>
-  <si>
-    <t>9840093018</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9840098553</t>
+  </si>
+  <si>
+    <t>9840066030</t>
+  </si>
+  <si>
+    <t>9840058141</t>
+  </si>
+  <si>
+    <t>9840026892</t>
+  </si>
+  <si>
+    <t>9840033055</t>
+  </si>
+  <si>
+    <t>9840051516</t>
+  </si>
+  <si>
+    <t>9840008035</t>
+  </si>
+  <si>
+    <t>9840070788</t>
+  </si>
+  <si>
+    <t>9840054102</t>
+  </si>
+  <si>
+    <t>9840065345</t>
+  </si>
+  <si>
+    <t>9840053220</t>
+  </si>
+  <si>
+    <t>9840077394</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840029072</t>
+  </si>
+  <si>
+    <t>9840009216</t>
+  </si>
+  <si>
+    <t>9840007879</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840092977</t>
-  </si>
-  <si>
-    <t>9840087951</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840000086</t>
-  </si>
-  <si>
-    <t>9840069218</t>
-  </si>
-  <si>
-    <t>9840095834</t>
-  </si>
-  <si>
-    <t>9840095513</t>
-  </si>
-  <si>
-    <t>9840038510</t>
-  </si>
-  <si>
-    <t>9840028071</t>
-  </si>
-  <si>
-    <t>9840073865</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840022790</t>
-  </si>
-  <si>
-    <t>9840046507</t>
-  </si>
-  <si>
-    <t>9840085738</t>
-  </si>
-  <si>
-    <t>9840016484</t>
-  </si>
-  <si>
-    <t>9840077719</t>
-  </si>
-  <si>
-    <t>9840035403</t>
+    <t>9840061451</t>
+  </si>
+  <si>
+    <t>9840004707</t>
+  </si>
+  <si>
+    <t>9840015495</t>
   </si>
 </sst>
 </file>
@@ -709,59 +712,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -940,7 +943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1056,10 +1059,10 @@
         <v>82</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1113,7 +1116,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1258,7 @@
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1396,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1443,7 +1446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
+++ b/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="114">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -334,6 +334,33 @@
   </si>
   <si>
     <t>9840015495</t>
+  </si>
+  <si>
+    <t>9840007801</t>
+  </si>
+  <si>
+    <t>9840061993</t>
+  </si>
+  <si>
+    <t>9840005368</t>
+  </si>
+  <si>
+    <t>9840078691</t>
+  </si>
+  <si>
+    <t>9840023813</t>
+  </si>
+  <si>
+    <t>9840085700</t>
+  </si>
+  <si>
+    <t>9840072369</t>
+  </si>
+  <si>
+    <t>9840049111</t>
+  </si>
+  <si>
+    <t>9840079014</t>
   </si>
 </sst>
 </file>
@@ -960,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1062,7 +1089,7 @@
         <v>84</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1133,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1180,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1227,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1275,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1322,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1369,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1416,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1463,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
+++ b/testData/WebForm/TC018_WF_RRN_OneY_TwoY_Test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="99">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,94 +274,49 @@
     <t>WF_RRN_OneY_TwoY_Test</t>
   </si>
   <si>
+    <t>9840061993</t>
+  </si>
+  <si>
+    <t>9840005368</t>
+  </si>
+  <si>
+    <t>9840023813</t>
+  </si>
+  <si>
+    <t>9840085700</t>
+  </si>
+  <si>
+    <t>9840072369</t>
+  </si>
+  <si>
+    <t>9840079014</t>
+  </si>
+  <si>
+    <t>9840008122</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840026456</t>
+  </si>
+  <si>
+    <t>9840062540</t>
+  </si>
+  <si>
+    <t>9840039758</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840085600</t>
+  </si>
+  <si>
+    <t>9840097600</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>9840098553</t>
-  </si>
-  <si>
-    <t>9840066030</t>
-  </si>
-  <si>
-    <t>9840058141</t>
-  </si>
-  <si>
-    <t>9840026892</t>
-  </si>
-  <si>
-    <t>9840033055</t>
-  </si>
-  <si>
-    <t>9840051516</t>
-  </si>
-  <si>
-    <t>9840008035</t>
-  </si>
-  <si>
-    <t>9840070788</t>
-  </si>
-  <si>
-    <t>9840054102</t>
-  </si>
-  <si>
-    <t>9840065345</t>
-  </si>
-  <si>
-    <t>9840053220</t>
-  </si>
-  <si>
-    <t>9840077394</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840029072</t>
-  </si>
-  <si>
-    <t>9840009216</t>
-  </si>
-  <si>
-    <t>9840007879</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840061451</t>
-  </si>
-  <si>
-    <t>9840004707</t>
-  </si>
-  <si>
-    <t>9840015495</t>
-  </si>
-  <si>
-    <t>9840007801</t>
-  </si>
-  <si>
-    <t>9840061993</t>
-  </si>
-  <si>
-    <t>9840005368</t>
-  </si>
-  <si>
-    <t>9840078691</t>
-  </si>
-  <si>
-    <t>9840023813</t>
-  </si>
-  <si>
-    <t>9840085700</t>
-  </si>
-  <si>
-    <t>9840072369</t>
-  </si>
-  <si>
-    <t>9840049111</t>
-  </si>
-  <si>
-    <t>9840079014</t>
   </si>
 </sst>
 </file>
@@ -739,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1086,10 +1042,10 @@
         <v>82</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1160,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1187,7 +1143,7 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -1207,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1254,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1302,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1329,7 +1285,7 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1349,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1376,7 +1332,7 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1396,7 +1352,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1423,7 +1379,7 @@
         <v>47</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1443,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1490,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1517,7 +1473,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
